--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="182">
   <si>
     <t>Property</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -428,6 +428,24 @@
   </si>
   <si>
     <t>http://snomed.info/sct/554471000005108/version/20180930</t>
+  </si>
+  <si>
+    <t>702916001</t>
+  </si>
+  <si>
+    <t>Rehabilitation clinic</t>
+  </si>
+  <si>
+    <t>284546000</t>
+  </si>
+  <si>
+    <t>Hospice</t>
+  </si>
+  <si>
+    <t>272511002</t>
+  </si>
+  <si>
+    <t>Municipal and civic establishment</t>
   </si>
   <si>
     <t>557891000005101</t>
@@ -1385,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1557,18 +1575,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>175</v>
+      <c r="B25" t="s" s="2">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-sor-organization-type.xlsx
+++ b/fhir/ValueSet-ehealth-sor-organization-type.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
